--- a/analysis/ComponentDuplicatedLOC.xlsx
+++ b/analysis/ComponentDuplicatedLOC.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soelm\Desktop\Repositories\SoftwareMaintenance\analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F630F9F1-E4C0-4642-B39A-550764C9BDBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,322 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+  <si>
+    <t>profiles/killpay/src/main/webapp/lib/shred.bundle.js</t>
+  </si>
+  <si>
+    <t>profiles/killpay/src/main/webapp/lib/shred/content.js</t>
+  </si>
+  <si>
+    <t>account/src/main/java/org/killbill/billing/account/api/user/DefaultAccountCreationEvent.java</t>
+  </si>
+  <si>
+    <t>account/src/main/java/org/killbill/billing/account/api/DefaultAccount.java</t>
+  </si>
+  <si>
+    <t>account/src/main/java/org/killbill/billing/account/dao/AccountModelDao.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/tag/api/user/DefaultControlTagCreationEvent.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/tag/api/user/DefaultUserTagDeletionEvent.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/tag/api/user/DefaultUserTagCreationEvent.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/tag/api/user/DefaultControlTagDeletionEvent.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/resources/PaymentResource.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/json/AccountJson.java</t>
+  </si>
+  <si>
+    <t>entitlement/src/main/java/org/killbill/billing/entitlement/api/DefaultSubscriptionEvent.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/resources/PaymentMethodResource.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/customfield/dao/CustomFieldModelDao.java</t>
+  </si>
+  <si>
+    <t>invoice/src/main/java/org/killbill/billing/invoice/api/DefaultInvoicePaymentInternalEvent.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/tag/api/user/DefaultUserTagDefinitionDeletionEvent.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/tag/api/user/DefaultControlTagDefinitionDeletionEvent.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/tag/api/user/DefaultUserTagDefinitionCreationEvent.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/tag/api/user/DefaultControlTagDefinitionCreationEvent.java</t>
+  </si>
+  <si>
+    <t>catalog/src/main/java/org/killbill/billing/catalog/rules/DefaultCaseChangePlanPolicy.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/customfield/api/DefaultCustomFieldDeletionEvent.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/resources/BundleResource.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/customfield/api/DefaultCustomFieldCreationEvent.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/export/dao/CSVExportOutputStream.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/resources/TagResource.java</t>
+  </si>
+  <si>
+    <t>entitlement/src/main/java/org/killbill/billing/entitlement/api/DefaultEntitlement.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/security/shiro/dao/UserRolesModelDao.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/json/PaymentAttemptJson.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/security/shiro/dao/RolesPermissionsModelDao.java</t>
+  </si>
+  <si>
+    <t>payment/src/main/java/org/killbill/billing/payment/api/DefaultPaymentAttempt.java</t>
+  </si>
+  <si>
+    <t>invoice/src/main/java/org/killbill/billing/invoice/model/DefaultInvoicePayment.java</t>
+  </si>
+  <si>
+    <t>entitlement/src/main/java/org/killbill/billing/entitlement/api/DefaultSubscriptionBundleTimeline.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/json/BundleTimelineJson.java</t>
+  </si>
+  <si>
+    <t>entitlement/src/main/java/org/killbill/billing/entitlement/engine/core/EventsStreamBuilder.java</t>
+  </si>
+  <si>
+    <t>entitlement/src/main/java/org/killbill/billing/entitlement/api/DefaultSubscriptionApi.java</t>
+  </si>
+  <si>
+    <t>usage/src/main/java/org/killbill/billing/usage/api/user/DefaultRolledUpUsage.java</t>
+  </si>
+  <si>
+    <t>invoice/src/main/java/org/killbill/billing/invoice/usage/DefaultRolledUpUsage.java</t>
+  </si>
+  <si>
+    <t>catalog/src/main/java/org/killbill/billing/catalog/dao/CatalogOverrideBlockDefinitionModelDao.java</t>
+  </si>
+  <si>
+    <t>payment/src/main/java/org/killbill/billing/payment/core/sm/PluginControlPaymentAutomatonRunner.java</t>
+  </si>
+  <si>
+    <t>profiles/killpay/src/main/webapp/lib/marked.js</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/security/shiro/dao/UserModelDao.java</t>
+  </si>
+  <si>
+    <t>catalog/src/main/java/org/killbill/billing/catalog/dao/CatalogOverrideTierDefinitionModelDao.java</t>
+  </si>
+  <si>
+    <t>catalog/src/main/java/org/killbill/billing/catalog/rules/DefaultCaseCancelPolicy.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/security/shiro/realm/KillBillOktaRealm.java</t>
+  </si>
+  <si>
+    <t>entitlement/src/main/java/org/killbill/billing/entitlement/api/DefaultEntitlementContext.java</t>
+  </si>
+  <si>
+    <t>api/src/main/java/org/killbill/billing/callcontext/CallContextBase.java</t>
+  </si>
+  <si>
+    <t>profiles/killbill/src/main/webapp/index.html</t>
+  </si>
+  <si>
+    <t>profiles/killpay/src/main/webapp/index.html</t>
+  </si>
+  <si>
+    <t>account/src/main/java/org/killbill/billing/account/api/DefaultMutableAccountData.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/resources/InvoicePaymentResource.java</t>
+  </si>
+  <si>
+    <t>catalog/src/main/java/org/killbill/billing/catalog/DefaultDuration.java</t>
+  </si>
+  <si>
+    <t>overdue/src/main/java/org/killbill/billing/overdue/config/DefaultDuration.java</t>
+  </si>
+  <si>
+    <t>catalog/src/main/java/org/killbill/billing/catalog/dao/CatalogOverridePlanPhaseModelDao.java</t>
+  </si>
+  <si>
+    <t>catalog/src/main/java/org/killbill/billing/catalog/dao/CatalogOverridePhaseDefinitionModelDao.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/resources/TransactionResource.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/resources/InvoiceResource.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/resources/InvoiceItemResource.java</t>
+  </si>
+  <si>
+    <t>catalog/src/main/java/org/killbill/billing/catalog/rules/DefaultCaseChange.java</t>
+  </si>
+  <si>
+    <t>catalog/src/main/java/org/killbill/billing/catalog/rules/DefaultCase.java</t>
+  </si>
+  <si>
+    <t>invoice/src/main/java/org/killbill/billing/invoice/usage/DefaultRolledUpUnit.java</t>
+  </si>
+  <si>
+    <t>usage/src/main/java/org/killbill/billing/usage/api/user/DefaultRolledUpUnit.java</t>
+  </si>
+  <si>
+    <t>catalog/src/main/java/org/killbill/billing/catalog/rules/DefaultCasePhase.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/tag/dao/TagModelDao.java</t>
+  </si>
+  <si>
+    <t>payment/src/main/java/org/killbill/billing/payment/api/DefaultPayment.java</t>
+  </si>
+  <si>
+    <t>invoice/src/main/java/org/killbill/billing/invoice/model/InvoiceItemCatalogBase.java</t>
+  </si>
+  <si>
+    <t>payment/src/main/java/org/killbill/billing/payment/api/DefaultPaymentInternalEvent.java</t>
+  </si>
+  <si>
+    <t>payment/src/main/java/org/killbill/billing/payment/provider/DefaultNoOpPaymentInfoPlugin.java</t>
+  </si>
+  <si>
+    <t>catalog/src/main/java/org/killbill/billing/catalog/rules/DefaultCaseBillingAlignment.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/json/InvoiceItemJson.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/audit/dao/AuditLogModelDao.java</t>
+  </si>
+  <si>
+    <t>catalog/src/main/java/org/killbill/billing/catalog/rules/DefaultCaseCreateAlignment.java</t>
+  </si>
+  <si>
+    <t>catalog/src/main/java/org/killbill/billing/catalog/rules/DefaultCaseChangePlanAlignment.java</t>
+  </si>
+  <si>
+    <t>api/src/main/java/org/killbill/billing/callcontext/InternalCallContext.java</t>
+  </si>
+  <si>
+    <t>tenant/src/main/java/org/killbill/billing/tenant/api/DefaultTenant.java</t>
+  </si>
+  <si>
+    <t>payment/src/main/java/org/killbill/billing/payment/dao/PaymentModelDao.java</t>
+  </si>
+  <si>
+    <t>profiles/killbill/src/main/java/org/killbill/billing/server/filters/KillbillMDCInsertingServletFilter.java</t>
+  </si>
+  <si>
+    <t>profiles/killbill/src/main/java/org/killbill/billing/server/filters/RequestDataFilter.java</t>
+  </si>
+  <si>
+    <t>account/src/main/java/org/killbill/billing/account/dao/AccountEmailModelDao.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/json/AccountEmailJson.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/tag/dao/TagDefinitionModelDao.java</t>
+  </si>
+  <si>
+    <t>subscription/src/main/java/org/killbill/billing/subscription/engine/dao/model/SubscriptionEventModelDao.java</t>
+  </si>
+  <si>
+    <t>catalog/src/main/java/org/killbill/billing/catalog/DefaultPrice.java</t>
+  </si>
+  <si>
+    <t>subscription/src/main/java/org/killbill/billing/subscription/engine/dao/model/SubscriptionModelDao.java</t>
+  </si>
+  <si>
+    <t>subscription/src/main/java/org/killbill/billing/subscription/api/user/DefaultSubscriptionBase.java</t>
+  </si>
+  <si>
+    <t>account/src/main/java/org/killbill/billing/account/api/DefaultAccountEmail.java</t>
+  </si>
+  <si>
+    <t>tenant/src/main/java/org/killbill/billing/tenant/dao/TenantKVModelDao.java</t>
+  </si>
+  <si>
+    <t>tenant/src/main/java/org/killbill/billing/tenant/api/user/DefaultTenantConfigChangeInternalEvent.java</t>
+  </si>
+  <si>
+    <t>subscription/src/main/java/org/killbill/billing/subscription/engine/dao/model/SubscriptionBundleModelDao.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/json/ComboHostedPaymentPageJson.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/audit/DefaultAuditLog.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/audit/DefaultAuditLogWithHistory.java</t>
+  </si>
+  <si>
+    <t>invoice/src/main/java/org/killbill/billing/invoice/dao/InvoicePaymentModelDao.java</t>
+  </si>
+  <si>
+    <t>invoice/src/main/java/org/killbill/billing/invoice/notification/NextBillingDateNotificationKey.java</t>
+  </si>
+  <si>
+    <t>invoice/src/main/java/org/killbill/billing/invoice/dao/InvoiceModelDao.java</t>
+  </si>
+  <si>
+    <t>invoice/src/main/java/org/killbill/billing/invoice/api/DefaultInvoiceContext.java</t>
+  </si>
+  <si>
+    <t>payment/src/main/java/org/killbill/billing/payment/api/DefaultPaymentTransaction.java</t>
+  </si>
+  <si>
+    <t>invoice/src/main/java/org/killbill/billing/invoice/dao/InvoiceItemModelDao.java</t>
+  </si>
+  <si>
+    <t>tenant/src/main/java/org/killbill/billing/tenant/dao/TenantModelDao.java</t>
+  </si>
+  <si>
+    <t>util/src/main/java/org/killbill/billing/util/customfield/StringCustomField.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/json/ComboPaymentTransactionJson.java</t>
+  </si>
+  <si>
+    <t>jaxrs/src/main/java/org/killbill/billing/jaxrs/json/PaymentJson.java</t>
+  </si>
+  <si>
+    <t>profiles/killbill/src/main/java/org/killbill/billing/server/modules/KillbillServerModule.java</t>
+  </si>
+  <si>
+    <t>profiles/killpay/src/main/java/org/killbill/billing/server/modules/KillpayServerModule.java</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +650,840 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>